--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.989951629968649</v>
+        <v>11.27436066666667</v>
       </c>
       <c r="H2">
-        <v>9.989951629968649</v>
+        <v>33.823082</v>
       </c>
       <c r="I2">
-        <v>0.62048123878593</v>
+        <v>0.6286406327466463</v>
       </c>
       <c r="J2">
-        <v>0.62048123878593</v>
+        <v>0.6286406327466463</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.883764224106219</v>
+        <v>24.59985066666667</v>
       </c>
       <c r="N2">
-        <v>8.883764224106219</v>
+        <v>73.79955200000001</v>
       </c>
       <c r="O2">
-        <v>0.2219346065941976</v>
+        <v>0.4261128628549158</v>
       </c>
       <c r="P2">
-        <v>0.2219346065941976</v>
+        <v>0.4261128628549157</v>
       </c>
       <c r="Q2">
-        <v>88.7483748908671</v>
+        <v>277.3475887621404</v>
       </c>
       <c r="R2">
-        <v>88.7483748908671</v>
+        <v>2496.128298859264</v>
       </c>
       <c r="S2">
-        <v>0.1377062596290357</v>
+        <v>0.2678718597265992</v>
       </c>
       <c r="T2">
-        <v>0.1377062596290357</v>
+        <v>0.2678718597265991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.989951629968649</v>
+        <v>11.27436066666667</v>
       </c>
       <c r="H3">
-        <v>9.989951629968649</v>
+        <v>33.823082</v>
       </c>
       <c r="I3">
-        <v>0.62048123878593</v>
+        <v>0.6286406327466463</v>
       </c>
       <c r="J3">
-        <v>0.62048123878593</v>
+        <v>0.6286406327466463</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.36895414761942</v>
+        <v>2.577566</v>
       </c>
       <c r="N3">
-        <v>2.36895414761942</v>
+        <v>7.732698000000001</v>
       </c>
       <c r="O3">
-        <v>0.05918132151289773</v>
+        <v>0.04464799572729766</v>
       </c>
       <c r="P3">
-        <v>0.05918132151289773</v>
+        <v>0.04464799572729766</v>
       </c>
       <c r="Q3">
-        <v>23.66573734833161</v>
+        <v>29.06040872613734</v>
       </c>
       <c r="R3">
-        <v>23.66573734833161</v>
+        <v>261.543678535236</v>
       </c>
       <c r="S3">
-        <v>0.03672089968531119</v>
+        <v>0.02806754428487796</v>
       </c>
       <c r="T3">
-        <v>0.03672089968531119</v>
+        <v>0.02806754428487796</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.989951629968649</v>
+        <v>11.27436066666667</v>
       </c>
       <c r="H4">
-        <v>9.989951629968649</v>
+        <v>33.823082</v>
       </c>
       <c r="I4">
-        <v>0.62048123878593</v>
+        <v>0.6286406327466463</v>
       </c>
       <c r="J4">
-        <v>0.62048123878593</v>
+        <v>0.6286406327466463</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0828097060786222</v>
+        <v>0.4574283333333333</v>
       </c>
       <c r="N4">
-        <v>0.0828097060786222</v>
+        <v>1.372285</v>
       </c>
       <c r="O4">
-        <v>0.002068755887382768</v>
+        <v>0.007923466662817385</v>
       </c>
       <c r="P4">
-        <v>0.002068755887382768</v>
+        <v>0.007923466662817385</v>
       </c>
       <c r="Q4">
-        <v>0.8272649582173567</v>
+        <v>5.157212009152222</v>
       </c>
       <c r="R4">
-        <v>0.8272649582173567</v>
+        <v>46.41490808237</v>
       </c>
       <c r="S4">
-        <v>0.001283624215748946</v>
+        <v>0.004981013096460479</v>
       </c>
       <c r="T4">
-        <v>0.001283624215748946</v>
+        <v>0.004981013096460479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.989951629968649</v>
+        <v>11.27436066666667</v>
       </c>
       <c r="H5">
-        <v>9.989951629968649</v>
+        <v>33.823082</v>
       </c>
       <c r="I5">
-        <v>0.62048123878593</v>
+        <v>0.6286406327466463</v>
       </c>
       <c r="J5">
-        <v>0.62048123878593</v>
+        <v>0.6286406327466463</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.6932189501434</v>
+        <v>30.09598833333334</v>
       </c>
       <c r="N5">
-        <v>28.6932189501434</v>
+        <v>90.28796500000001</v>
       </c>
       <c r="O5">
-        <v>0.716815316005522</v>
+        <v>0.5213156747549692</v>
       </c>
       <c r="P5">
-        <v>0.716815316005522</v>
+        <v>0.5213156747549692</v>
       </c>
       <c r="Q5">
-        <v>286.6438694200324</v>
+        <v>339.3130270897923</v>
       </c>
       <c r="R5">
-        <v>286.6438694200324</v>
+        <v>3053.817243808131</v>
       </c>
       <c r="S5">
-        <v>0.4447704552558341</v>
+        <v>0.3277202156387087</v>
       </c>
       <c r="T5">
-        <v>0.4447704552558341</v>
+        <v>0.3277202156387087</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.35020507846572</v>
+        <v>2.395357333333333</v>
       </c>
       <c r="H6">
-        <v>2.35020507846572</v>
+        <v>7.186071999999999</v>
       </c>
       <c r="I6">
-        <v>0.145972494412565</v>
+        <v>0.1335613605242407</v>
       </c>
       <c r="J6">
-        <v>0.145972494412565</v>
+        <v>0.1335613605242408</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.883764224106219</v>
+        <v>24.59985066666667</v>
       </c>
       <c r="N6">
-        <v>8.883764224106219</v>
+        <v>73.79955200000001</v>
       </c>
       <c r="O6">
-        <v>0.2219346065941976</v>
+        <v>0.4261128628549158</v>
       </c>
       <c r="P6">
-        <v>0.2219346065941976</v>
+        <v>0.4261128628549157</v>
       </c>
       <c r="Q6">
-        <v>20.87866779538651</v>
+        <v>58.92543269330489</v>
       </c>
       <c r="R6">
-        <v>20.87866779538651</v>
+        <v>530.328894239744</v>
       </c>
       <c r="S6">
-        <v>0.03239634812102633</v>
+        <v>0.05691221369978175</v>
       </c>
       <c r="T6">
-        <v>0.03239634812102633</v>
+        <v>0.05691221369978176</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.35020507846572</v>
+        <v>2.395357333333333</v>
       </c>
       <c r="H7">
-        <v>2.35020507846572</v>
+        <v>7.186071999999999</v>
       </c>
       <c r="I7">
-        <v>0.145972494412565</v>
+        <v>0.1335613605242407</v>
       </c>
       <c r="J7">
-        <v>0.145972494412565</v>
+        <v>0.1335613605242408</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.36895414761942</v>
+        <v>2.577566</v>
       </c>
       <c r="N7">
-        <v>2.36895414761942</v>
+        <v>7.732698000000001</v>
       </c>
       <c r="O7">
-        <v>0.05918132151289773</v>
+        <v>0.04464799572729766</v>
       </c>
       <c r="P7">
-        <v>0.05918132151289773</v>
+        <v>0.04464799572729766</v>
       </c>
       <c r="Q7">
-        <v>5.567528068387592</v>
+        <v>6.174191620250667</v>
       </c>
       <c r="R7">
-        <v>5.567528068387592</v>
+        <v>55.56772458225601</v>
       </c>
       <c r="S7">
-        <v>0.008638845123869679</v>
+        <v>0.005963247054018362</v>
       </c>
       <c r="T7">
-        <v>0.008638845123869679</v>
+        <v>0.005963247054018364</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.35020507846572</v>
+        <v>2.395357333333333</v>
       </c>
       <c r="H8">
-        <v>2.35020507846572</v>
+        <v>7.186071999999999</v>
       </c>
       <c r="I8">
-        <v>0.145972494412565</v>
+        <v>0.1335613605242407</v>
       </c>
       <c r="J8">
-        <v>0.145972494412565</v>
+        <v>0.1335613605242408</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0828097060786222</v>
+        <v>0.4574283333333333</v>
       </c>
       <c r="N8">
-        <v>0.0828097060786222</v>
+        <v>1.372285</v>
       </c>
       <c r="O8">
-        <v>0.002068755887382768</v>
+        <v>0.007923466662817385</v>
       </c>
       <c r="P8">
-        <v>0.002068755887382768</v>
+        <v>0.007923466662817385</v>
       </c>
       <c r="Q8">
-        <v>0.1946197917722315</v>
+        <v>1.095704312724444</v>
       </c>
       <c r="R8">
-        <v>0.1946197917722315</v>
+        <v>9.86133881452</v>
       </c>
       <c r="S8">
-        <v>0.0003019814572119422</v>
+        <v>0.001058268987554355</v>
       </c>
       <c r="T8">
-        <v>0.0003019814572119422</v>
+        <v>0.001058268987554356</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.35020507846572</v>
+        <v>2.395357333333333</v>
       </c>
       <c r="H9">
-        <v>2.35020507846572</v>
+        <v>7.186071999999999</v>
       </c>
       <c r="I9">
-        <v>0.145972494412565</v>
+        <v>0.1335613605242407</v>
       </c>
       <c r="J9">
-        <v>0.145972494412565</v>
+        <v>0.1335613605242408</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.6932189501434</v>
+        <v>30.09598833333334</v>
       </c>
       <c r="N9">
-        <v>28.6932189501434</v>
+        <v>90.28796500000001</v>
       </c>
       <c r="O9">
-        <v>0.716815316005522</v>
+        <v>0.5213156747549692</v>
       </c>
       <c r="P9">
-        <v>0.716815316005522</v>
+        <v>0.5213156747549692</v>
       </c>
       <c r="Q9">
-        <v>67.43494889415585</v>
+        <v>72.09064635816445</v>
       </c>
       <c r="R9">
-        <v>67.43494889415585</v>
+        <v>648.8158172234801</v>
       </c>
       <c r="S9">
-        <v>0.1046353197104571</v>
+        <v>0.06962763078288627</v>
       </c>
       <c r="T9">
-        <v>0.1046353197104571</v>
+        <v>0.06962763078288628</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.37831324247554</v>
+        <v>1.512471333333333</v>
       </c>
       <c r="H10">
-        <v>1.37831324247554</v>
+        <v>4.537414</v>
       </c>
       <c r="I10">
-        <v>0.08560777267036265</v>
+        <v>0.08433302464847796</v>
       </c>
       <c r="J10">
-        <v>0.08560777267036265</v>
+        <v>0.08433302464847797</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.883764224106219</v>
+        <v>24.59985066666667</v>
       </c>
       <c r="N10">
-        <v>8.883764224106219</v>
+        <v>73.79955200000001</v>
       </c>
       <c r="O10">
-        <v>0.2219346065941976</v>
+        <v>0.4261128628549158</v>
       </c>
       <c r="P10">
-        <v>0.2219346065941976</v>
+        <v>0.4261128628549157</v>
       </c>
       <c r="Q10">
-        <v>12.24460987311604</v>
+        <v>37.20656893761422</v>
       </c>
       <c r="R10">
-        <v>12.24460987311604</v>
+        <v>334.859120438528</v>
       </c>
       <c r="S10">
-        <v>0.01899932734900243</v>
+        <v>0.03593538656617712</v>
       </c>
       <c r="T10">
-        <v>0.01899932734900243</v>
+        <v>0.03593538656617712</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.37831324247554</v>
+        <v>1.512471333333333</v>
       </c>
       <c r="H11">
-        <v>1.37831324247554</v>
+        <v>4.537414</v>
       </c>
       <c r="I11">
-        <v>0.08560777267036265</v>
+        <v>0.08433302464847796</v>
       </c>
       <c r="J11">
-        <v>0.08560777267036265</v>
+        <v>0.08433302464847797</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.36895414761942</v>
+        <v>2.577566</v>
       </c>
       <c r="N11">
-        <v>2.36895414761942</v>
+        <v>7.732698000000001</v>
       </c>
       <c r="O11">
-        <v>0.05918132151289773</v>
+        <v>0.04464799572729766</v>
       </c>
       <c r="P11">
-        <v>0.05918132151289773</v>
+        <v>0.04464799572729766</v>
       </c>
       <c r="Q11">
-        <v>3.265160872481201</v>
+        <v>3.898494684774667</v>
       </c>
       <c r="R11">
-        <v>3.265160872481201</v>
+        <v>35.086452162972</v>
       </c>
       <c r="S11">
-        <v>0.005066381118407791</v>
+        <v>0.003765300524175332</v>
       </c>
       <c r="T11">
-        <v>0.005066381118407791</v>
+        <v>0.003765300524175333</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.37831324247554</v>
+        <v>1.512471333333333</v>
       </c>
       <c r="H12">
-        <v>1.37831324247554</v>
+        <v>4.537414</v>
       </c>
       <c r="I12">
-        <v>0.08560777267036265</v>
+        <v>0.08433302464847796</v>
       </c>
       <c r="J12">
-        <v>0.08560777267036265</v>
+        <v>0.08433302464847797</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0828097060786222</v>
+        <v>0.4574283333333333</v>
       </c>
       <c r="N12">
-        <v>0.0828097060786222</v>
+        <v>1.372285</v>
       </c>
       <c r="O12">
-        <v>0.002068755887382768</v>
+        <v>0.007923466662817385</v>
       </c>
       <c r="P12">
-        <v>0.002068755887382768</v>
+        <v>0.007923466662817385</v>
       </c>
       <c r="Q12">
-        <v>0.1141377144936722</v>
+        <v>0.6918472412211111</v>
       </c>
       <c r="R12">
-        <v>0.1141377144936722</v>
+        <v>6.22662517099</v>
       </c>
       <c r="S12">
-        <v>0.0001771015837175384</v>
+        <v>0.0006682099093767719</v>
       </c>
       <c r="T12">
-        <v>0.0001771015837175384</v>
+        <v>0.000668209909376772</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.37831324247554</v>
+        <v>1.512471333333333</v>
       </c>
       <c r="H13">
-        <v>1.37831324247554</v>
+        <v>4.537414</v>
       </c>
       <c r="I13">
-        <v>0.08560777267036265</v>
+        <v>0.08433302464847796</v>
       </c>
       <c r="J13">
-        <v>0.08560777267036265</v>
+        <v>0.08433302464847797</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.6932189501434</v>
+        <v>30.09598833333334</v>
       </c>
       <c r="N13">
-        <v>28.6932189501434</v>
+        <v>90.28796500000001</v>
       </c>
       <c r="O13">
-        <v>0.716815316005522</v>
+        <v>0.5213156747549692</v>
       </c>
       <c r="P13">
-        <v>0.716815316005522</v>
+        <v>0.5213156747549692</v>
       </c>
       <c r="Q13">
-        <v>39.54824364823276</v>
+        <v>45.51931960250111</v>
       </c>
       <c r="R13">
-        <v>39.54824364823276</v>
+        <v>409.6738764225101</v>
       </c>
       <c r="S13">
-        <v>0.06136496261923489</v>
+        <v>0.04396412764874873</v>
       </c>
       <c r="T13">
-        <v>0.06136496261923489</v>
+        <v>0.04396412764874874</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.38185831931398</v>
+        <v>2.752319</v>
       </c>
       <c r="H14">
-        <v>2.38185831931398</v>
+        <v>8.256957</v>
       </c>
       <c r="I14">
-        <v>0.1479384941311422</v>
+        <v>0.1534649820806351</v>
       </c>
       <c r="J14">
-        <v>0.1479384941311422</v>
+        <v>0.1534649820806351</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.883764224106219</v>
+        <v>24.59985066666667</v>
       </c>
       <c r="N14">
-        <v>8.883764224106219</v>
+        <v>73.79955200000001</v>
       </c>
       <c r="O14">
-        <v>0.2219346065941976</v>
+        <v>0.4261128628549158</v>
       </c>
       <c r="P14">
-        <v>0.2219346065941976</v>
+        <v>0.4261128628549157</v>
       </c>
       <c r="Q14">
-        <v>21.1598677240113</v>
+        <v>67.70663638702933</v>
       </c>
       <c r="R14">
-        <v>21.1598677240113</v>
+        <v>609.359727483264</v>
       </c>
       <c r="S14">
-        <v>0.03283267149513305</v>
+        <v>0.06539340286235776</v>
       </c>
       <c r="T14">
-        <v>0.03283267149513305</v>
+        <v>0.06539340286235776</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.38185831931398</v>
+        <v>2.752319</v>
       </c>
       <c r="H15">
-        <v>2.38185831931398</v>
+        <v>8.256957</v>
       </c>
       <c r="I15">
-        <v>0.1479384941311422</v>
+        <v>0.1534649820806351</v>
       </c>
       <c r="J15">
-        <v>0.1479384941311422</v>
+        <v>0.1534649820806351</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.36895414761942</v>
+        <v>2.577566</v>
       </c>
       <c r="N15">
-        <v>2.36895414761942</v>
+        <v>7.732698000000001</v>
       </c>
       <c r="O15">
-        <v>0.05918132151289773</v>
+        <v>0.04464799572729766</v>
       </c>
       <c r="P15">
-        <v>0.05918132151289773</v>
+        <v>0.04464799572729766</v>
       </c>
       <c r="Q15">
-        <v>5.642513144580673</v>
+        <v>7.094283875554001</v>
       </c>
       <c r="R15">
-        <v>5.642513144580673</v>
+        <v>63.848554879986</v>
       </c>
       <c r="S15">
-        <v>0.00875519558530906</v>
+        <v>0.006851903864226006</v>
       </c>
       <c r="T15">
-        <v>0.00875519558530906</v>
+        <v>0.006851903864226007</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.38185831931398</v>
+        <v>2.752319</v>
       </c>
       <c r="H16">
-        <v>2.38185831931398</v>
+        <v>8.256957</v>
       </c>
       <c r="I16">
-        <v>0.1479384941311422</v>
+        <v>0.1534649820806351</v>
       </c>
       <c r="J16">
-        <v>0.1479384941311422</v>
+        <v>0.1534649820806351</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0828097060786222</v>
+        <v>0.4574283333333333</v>
       </c>
       <c r="N16">
-        <v>0.0828097060786222</v>
+        <v>1.372285</v>
       </c>
       <c r="O16">
-        <v>0.002068755887382768</v>
+        <v>0.007923466662817385</v>
       </c>
       <c r="P16">
-        <v>0.002068755887382768</v>
+        <v>0.007923466662817385</v>
       </c>
       <c r="Q16">
-        <v>0.1972409873433117</v>
+        <v>1.258988692971667</v>
       </c>
       <c r="R16">
-        <v>0.1972409873433117</v>
+        <v>11.330898236745</v>
       </c>
       <c r="S16">
-        <v>0.0003060486307043416</v>
+        <v>0.001215974669425779</v>
       </c>
       <c r="T16">
-        <v>0.0003060486307043416</v>
+        <v>0.001215974669425779</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.38185831931398</v>
+        <v>2.752319</v>
       </c>
       <c r="H17">
-        <v>2.38185831931398</v>
+        <v>8.256957</v>
       </c>
       <c r="I17">
-        <v>0.1479384941311422</v>
+        <v>0.1534649820806351</v>
       </c>
       <c r="J17">
-        <v>0.1479384941311422</v>
+        <v>0.1534649820806351</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.6932189501434</v>
+        <v>30.09598833333334</v>
       </c>
       <c r="N17">
-        <v>28.6932189501434</v>
+        <v>90.28796500000001</v>
       </c>
       <c r="O17">
-        <v>0.716815316005522</v>
+        <v>0.5213156747549692</v>
       </c>
       <c r="P17">
-        <v>0.716815316005522</v>
+        <v>0.5213156747549692</v>
       </c>
       <c r="Q17">
-        <v>68.3431822642966</v>
+        <v>82.83376051361168</v>
       </c>
       <c r="R17">
-        <v>68.3431822642966</v>
+        <v>745.5038446225051</v>
       </c>
       <c r="S17">
-        <v>0.1060445784199958</v>
+        <v>0.08000370068462552</v>
       </c>
       <c r="T17">
-        <v>0.1060445784199958</v>
+        <v>0.08000370068462553</v>
       </c>
     </row>
   </sheetData>
